--- a/Design Documents/Data Dictionary.xlsx
+++ b/Design Documents/Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomkeir/Documents/GitHub/Mario-64-Unity/Design Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5213E6D1-6EDB-6D43-98D9-F7FAC98527DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8934C3C8-95AD-BA48-A4A5-D5354AC5B3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{07879E6E-DC8D-0B40-A43D-F141EAF49FC8}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{07879E6E-DC8D-0B40-A43D-F141EAF49FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -537,7 +537,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,6 +811,9 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
       <c r="E16" t="s">
         <v>39</v>
       </c>

--- a/Design Documents/Data Dictionary.xlsx
+++ b/Design Documents/Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomkeir/Documents/GitHub/Mario-64-Unity/Design Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8934C3C8-95AD-BA48-A4A5-D5354AC5B3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B48E0-7E33-484F-82B5-0BE9234F6E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{07879E6E-DC8D-0B40-A43D-F141EAF49FC8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{07879E6E-DC8D-0B40-A43D-F141EAF49FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Design Documents/Data Dictionary.xlsx
+++ b/Design Documents/Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomkeir/Documents/GitHub/Mario-64-Unity/Design Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B48E0-7E33-484F-82B5-0BE9234F6E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8934C3C8-95AD-BA48-A4A5-D5354AC5B3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{07879E6E-DC8D-0B40-A43D-F141EAF49FC8}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{07879E6E-DC8D-0B40-A43D-F141EAF49FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
